--- a/src/main/resources/templates/excel/Certificate-Request-Infomation.xlsx
+++ b/src/main/resources/templates/excel/Certificate-Request-Infomation.xlsx
@@ -46,7 +46,12 @@
             <charset val="163"/>
           </rPr>
           <t xml:space="preserve">
-bỏ trống cột này nếu là CTS cá nhân</t>
+Trường này dành cho:
+- CTS Doanh nghiệp
+- CTS Cá nhân thuộc doanh nghiệp
+Không dành cho:
+- CTS Cá nhân
+Tình trạng: Bắt buộc</t>
         </r>
       </text>
     </comment>
@@ -72,7 +77,12 @@
             <charset val="163"/>
           </rPr>
           <t xml:space="preserve">
-bỏ trống cột này nếu là CTS cá nhân</t>
+Trường này dành cho:
+- CTS Doanh nghiệp
+- CTS Cá nhân thuộc doanh nghiệp
+Không dành cho:
+- CTS Cá nhân
+Tình trạng: Bắt buộc</t>
         </r>
       </text>
     </comment>
@@ -98,7 +108,12 @@
             <charset val="163"/>
           </rPr>
           <t xml:space="preserve">
-bỏ trống cột này nếu là CTS cá nhân</t>
+Trường này dành cho:
+- CTS Doanh nghiệp
+- CTS Cá nhân thuộc doanh nghiệp
+Không dành cho:
+- CTS Cá nhân
+Tình trạng: Bắt buộc</t>
         </r>
       </text>
     </comment>
@@ -124,7 +139,12 @@
             <charset val="163"/>
           </rPr>
           <t xml:space="preserve">
-bỏ trống cột này nếu là CTS cá nhân</t>
+Trường này dành cho:
+- CTS Doanh nghiệp
+- CTS Cá nhân thuộc doanh nghiệp
+Không dành cho:
+- CTS Cá nhân
+Tình trạng: Không bắt buộc</t>
         </r>
       </text>
     </comment>
@@ -150,7 +170,12 @@
             <charset val="163"/>
           </rPr>
           <t xml:space="preserve">
-bỏ trống cột này nếu là CTS cá nhân</t>
+Trường này dành cho:
+- CTS Cá nhân thuộc doanh nghiệp
+Không dành cho:
+- CTS Doanh nghiệp
+- CTS Cá nhân
+Tình trạng: Không bắt buộc</t>
         </r>
       </text>
     </comment>
@@ -176,7 +201,12 @@
             <charset val="163"/>
           </rPr>
           <t xml:space="preserve">
-bỏ trống cột này nếu là CTS doanh nghiệp</t>
+Trường này dành cho:
+- CTS Cá nhân thuộc doanh nghiệp
+- CTS Cá nhân
+Không dành cho:
+- CTS Doanh nghiệp
+Tình trạng: Bắt buộc</t>
         </r>
       </text>
     </comment>
@@ -202,7 +232,148 @@
             <charset val="163"/>
           </rPr>
           <t xml:space="preserve">
-bỏ trống cột này nếu là CTS doanh nghiệp</t>
+Trường này dành cho:
+- CTS Cá nhân thuộc doanh nghiệp
+- CTS Cá nhân
+Không dành cho:
+- CTS Doanh nghiệp
+Tình trạng: Bắt buộc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Trường này dành cho:
+- Tất cả loại CTS
+Tình trạng: Không bắt buộc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Trường này dành cho:
+- Tất cả loại CTS
+Tình trạng: Không bắt buộc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Trường này dành cho:
+- Tất cả loại CTS
+Tình trạng: Không bắt buộc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Trường này dành cho:
+- Tất cả loại CTS
+Tình trạng: Bắt buộc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t xml:space="preserve">
+Trường này dành cho:
+- Tất cả loại CTS
+Tình trạng: Bắt buộc</t>
         </r>
       </text>
     </comment>
@@ -228,7 +399,7 @@
             <charset val="163"/>
           </rPr>
           <t xml:space="preserve">
-Dữ liệu tạo CTS - Người dùng không nhập vào cột này</t>
+Dữ liệu được hệ thống EasySign sinh ra sau khi tạo CSR thành công - Người dùng không nhập vào cột này</t>
         </r>
       </text>
     </comment>
@@ -254,7 +425,7 @@
             <charset val="163"/>
           </rPr>
           <t xml:space="preserve">
-Dữ liệu tạo CTS - Người dùng không nhập vào cột này</t>
+Dữ liệu được hệ thống EasySign sinh ra sau khi tạo CSR thành công - Người dùng không nhập vào cột này</t>
         </r>
       </text>
     </comment>
@@ -280,7 +451,59 @@
             <charset val="163"/>
           </rPr>
           <t xml:space="preserve">
-Dữ liệu tạo CTS - Người dùng không nhập vào cột này</t>
+Dữ liệu được hệ thống RA sinh ra sau khi tạo CTS thành công - Người dùng không nhập vào cột này</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t xml:space="preserve">
+Dữ liệu được hệ thống EasySign sinh ra sau khi import CTS thành công - Người dùng không nhập vào cột này</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t xml:space="preserve">
+Dữ liệu được hệ thống EasySign sinh ra sau khi import CTS thành công - Người dùng không nhập vào cột này</t>
         </r>
       </text>
     </comment>
@@ -289,22 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
-  <si>
-    <t>MST</t>
-  </si>
-  <si>
-    <t>Tên doanh nghiệp</t>
-  </si>
-  <si>
-    <t>CMND/HC</t>
-  </si>
-  <si>
-    <t>Tên cá nhân</t>
-  </si>
-  <si>
-    <t>Tổ chức</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Đơn vị tổ chức</t>
   </si>
@@ -321,12 +529,6 @@
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t>Tỉnh/TP</t>
-  </si>
-  <si>
-    <t>Quốc gia</t>
-  </si>
-  <si>
     <t>Tax code</t>
   </si>
   <si>
@@ -379,13 +581,43 @@
   </si>
   <si>
     <t>CERT</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>Mật khẩu CTS</t>
+  </si>
+  <si>
+    <t>PIN</t>
+  </si>
+  <si>
+    <t>MST (*)</t>
+  </si>
+  <si>
+    <t>CMND/HC (*)</t>
+  </si>
+  <si>
+    <t>Tên doanh nghiệp (*)</t>
+  </si>
+  <si>
+    <t>Tổ chức (*)</t>
+  </si>
+  <si>
+    <t>Tỉnh/TP (*)</t>
+  </si>
+  <si>
+    <t>Tên cá nhân (*)</t>
+  </si>
+  <si>
+    <t>Quốc gia (*)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -417,8 +649,14 @@
       <family val="2"/>
       <charset val="163"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,6 +699,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -489,7 +733,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -531,6 +775,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -813,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -833,109 +1080,123 @@
     <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="17.125" customWidth="1"/>
     <col min="13" max="13" width="13.25" customWidth="1"/>
-    <col min="14" max="14" width="17.625" customWidth="1"/>
+    <col min="14" max="14" width="25.875" customWidth="1"/>
     <col min="15" max="15" width="21.125" customWidth="1"/>
     <col min="16" max="16" width="25.625" customWidth="1"/>
+    <col min="17" max="17" width="29.625" customWidth="1"/>
+    <col min="18" max="18" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:18" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="I2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="15" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/templates/excel/Certificate-Request-Infomation.xlsx
+++ b/src/main/resources/templates/excel/Certificate-Request-Infomation.xlsx
@@ -2,13 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
-    <sheet name="Dữ liệu đầu vào tạo CTS" sheetId="1" r:id="rId1"/>
+    <sheet name="Dữ liệu đầu vào CTS" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet Data" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="list_province">'Sheet Data'!$A$2:$A$64</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -259,7 +268,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Trường này dành cho:
@@ -286,7 +295,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Trường này dành cho:
@@ -313,7 +322,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Trường này dành cho:
@@ -340,7 +349,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Trường này dành cho:
@@ -481,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -512,7 +521,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="129">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>MST (*)</t>
+  </si>
+  <si>
+    <t>Tên doanh nghiệp (*)</t>
+  </si>
+  <si>
+    <t>Tổ chức (*)</t>
+  </si>
   <si>
     <t>Đơn vị tổ chức</t>
   </si>
@@ -520,15 +541,69 @@
     <t>Chức vụ</t>
   </si>
   <si>
+    <t>CMND/HC (*)</t>
+  </si>
+  <si>
+    <t>Tên cá nhân (*)</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>SDT</t>
+    <t>SĐT</t>
   </si>
   <si>
     <t>Địa chỉ</t>
   </si>
   <si>
+    <t>Quốc gia (*)</t>
+  </si>
+  <si>
+    <t>Định danh khóa</t>
+  </si>
+  <si>
+    <t>CSR</t>
+  </si>
+  <si>
+    <t>CERT</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>CertID</t>
+  </si>
+  <si>
+    <t>Mật khẩu CTS</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Lỗi</t>
+  </si>
+  <si>
+    <t>Tên người liên hệ</t>
+  </si>
+  <si>
+    <t>Sđt người liên hệ</t>
+  </si>
+  <si>
+    <t>Email người liên hệ</t>
+  </si>
+  <si>
+    <t>Loại y/c</t>
+  </si>
+  <si>
+    <t>Loại nguồn</t>
+  </si>
+  <si>
+    <t>Email đại lý</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
     <t>Tax code</t>
   </si>
   <si>
@@ -565,63 +640,297 @@
     <t>Country</t>
   </si>
   <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
     <t>Alias</t>
   </si>
   <si>
-    <t>CSR</t>
-  </si>
-  <si>
-    <t>Định danh khóa</t>
-  </si>
-  <si>
-    <t>CERT</t>
-  </si>
-  <si>
-    <t>Serial</t>
-  </si>
-  <si>
-    <t>Mật khẩu CTS</t>
-  </si>
-  <si>
     <t>PIN</t>
   </si>
   <si>
-    <t>MST (*)</t>
-  </si>
-  <si>
-    <t>CMND/HC (*)</t>
-  </si>
-  <si>
-    <t>Tên doanh nghiệp (*)</t>
-  </si>
-  <si>
-    <t>Tổ chức (*)</t>
-  </si>
-  <si>
-    <t>Tỉnh/TP (*)</t>
-  </si>
-  <si>
-    <t>Tên cá nhân (*)</t>
-  </si>
-  <si>
-    <t>Quốc gia (*)</t>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>contact phone</t>
+  </si>
+  <si>
+    <t>contact email</t>
+  </si>
+  <si>
+    <t>Type request</t>
+  </si>
+  <si>
+    <t>Vendor type</t>
+  </si>
+  <si>
+    <t>Vendor Email</t>
+  </si>
+  <si>
+    <t>Tên địa phương</t>
+  </si>
+  <si>
+    <t>Thành Phố Hà Nội</t>
+  </si>
+  <si>
+    <t>Tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t>Tỉnh Cao Bằng</t>
+  </si>
+  <si>
+    <t>Tỉnh Bắc Kạn</t>
+  </si>
+  <si>
+    <t>Tỉnh Tuyên Quang</t>
+  </si>
+  <si>
+    <t>Tỉnh Lào Cai</t>
+  </si>
+  <si>
+    <t>Tỉnh Điện Biên</t>
+  </si>
+  <si>
+    <t>Tỉnh Lai Châu</t>
+  </si>
+  <si>
+    <t>Tỉnh Sơn La</t>
+  </si>
+  <si>
+    <t>Tỉnh Yên Bái</t>
+  </si>
+  <si>
+    <t>Tỉnh Hòa Bình</t>
+  </si>
+  <si>
+    <t>Tỉnh Thái Nguyên</t>
+  </si>
+  <si>
+    <t>Tỉnh Lạng Sơn</t>
+  </si>
+  <si>
+    <t>Tỉnh Quảng Ninh</t>
+  </si>
+  <si>
+    <t>Tỉnh Bắc Giang</t>
+  </si>
+  <si>
+    <t>Tỉnh Phú Thọ</t>
+  </si>
+  <si>
+    <t>Tỉnh Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>Tỉnh Bắc Ninh</t>
+  </si>
+  <si>
+    <t>Tỉnh Hải Dương</t>
+  </si>
+  <si>
+    <t>Thành Phố Hải Phòng</t>
+  </si>
+  <si>
+    <t>Tỉnh Hưng Yên</t>
+  </si>
+  <si>
+    <t>Tỉnh Thái Bình</t>
+  </si>
+  <si>
+    <t>Tỉnh Hà Nam</t>
+  </si>
+  <si>
+    <t>Tỉnh Nam Định</t>
+  </si>
+  <si>
+    <t>Tỉnh Ninh Bình</t>
+  </si>
+  <si>
+    <t>Tỉnh Thanh Hóa</t>
+  </si>
+  <si>
+    <t>Tỉnh Nghệ An</t>
+  </si>
+  <si>
+    <t>Tỉnh Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>Tỉnh Quảng Bình</t>
+  </si>
+  <si>
+    <t>Tỉnh Quảng Trị</t>
+  </si>
+  <si>
+    <t>Tỉnh Thừa Thiên Huế</t>
+  </si>
+  <si>
+    <t>Thành Phố Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Tỉnh Quảng Nam</t>
+  </si>
+  <si>
+    <t>Tỉnh Quảng Ngãi</t>
+  </si>
+  <si>
+    <t>Tỉnh Bình Định</t>
+  </si>
+  <si>
+    <t>Tỉnh Phú Yên</t>
+  </si>
+  <si>
+    <t>Tỉnh Khánh Hòa</t>
+  </si>
+  <si>
+    <t>Tỉnh Ninh Thuận</t>
+  </si>
+  <si>
+    <t>Tỉnh Bình Thuận</t>
+  </si>
+  <si>
+    <t>Tỉnh Kon Tum</t>
+  </si>
+  <si>
+    <t>Tỉnh Gia Lai</t>
+  </si>
+  <si>
+    <t>Tỉnh Đăk Lăk</t>
+  </si>
+  <si>
+    <t>Tỉnh Đăk Nông</t>
+  </si>
+  <si>
+    <t>Tỉnh Lâm Đồng</t>
+  </si>
+  <si>
+    <t>Tỉnh Bình Phước</t>
+  </si>
+  <si>
+    <t>Tỉnh Tây Ninh</t>
+  </si>
+  <si>
+    <t>Tỉnh Bình Dương</t>
+  </si>
+  <si>
+    <t>Tỉnh Đồng Nai</t>
+  </si>
+  <si>
+    <t>Tỉnh Bà Rịa - Vũng Tàu</t>
+  </si>
+  <si>
+    <t>Tp. Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Tỉnh Long An</t>
+  </si>
+  <si>
+    <t>Tỉnh Tiền Giang</t>
+  </si>
+  <si>
+    <t>Tỉnh Bến Tre</t>
+  </si>
+  <si>
+    <t>Tỉnh Trà Vinh</t>
+  </si>
+  <si>
+    <t>Tỉnh Vĩnh Long</t>
+  </si>
+  <si>
+    <t>Tỉnh Đồng Tháp</t>
+  </si>
+  <si>
+    <t>Tỉnh An Giang</t>
+  </si>
+  <si>
+    <t>Tỉnh Kiên Giang</t>
+  </si>
+  <si>
+    <t>Thành Phố Cần Thơ</t>
+  </si>
+  <si>
+    <t>Tỉnh Hậu Giang</t>
+  </si>
+  <si>
+    <t>Tỉnh Sóc Trăng</t>
+  </si>
+  <si>
+    <t>Tỉnh Bạc Liêu</t>
+  </si>
+  <si>
+    <t>Tỉnh Cà Mau</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tỉnh/TP </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <t>Loại chứng thư</t>
+  </si>
+  <si>
+    <t>Tạo mới</t>
+  </si>
+  <si>
+    <t>Gia hạn</t>
+  </si>
+  <si>
+    <t>Mua thêm</t>
+  </si>
+  <si>
+    <t>Loại nguồn đại lý</t>
+  </si>
+  <si>
+    <t>Chủ động</t>
+  </si>
+  <si>
+    <t>Đại lý - CTV Đơn vị - CTV Cá nhân</t>
+  </si>
+  <si>
+    <t>Data thuế gửi</t>
+  </si>
+  <si>
+    <t>Nhân viên thuế</t>
+  </si>
+  <si>
+    <t>Data từ hội thảo thuế</t>
+  </si>
+  <si>
+    <t>Marketing Zalo</t>
+  </si>
+  <si>
+    <t>Marketing điện thoại</t>
+  </si>
+  <si>
+    <t>Marketing Email</t>
+  </si>
+  <si>
+    <t>Marketing Facebook</t>
+  </si>
+  <si>
+    <t>Marketing chat</t>
+  </si>
+  <si>
+    <t>Trưởng nhóm</t>
+  </si>
+  <si>
+    <t>Hóa đơn Mobile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -629,17 +938,25 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="163"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -653,15 +970,54 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -672,12 +1028,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,18 +1045,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -729,15 +1103,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -747,37 +1144,81 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,148 +1501,642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
-    <col min="5" max="5" width="21.25" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="17.375" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="9" width="14.25" customWidth="1"/>
-    <col min="10" max="10" width="17.125" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="17.125" customWidth="1"/>
-    <col min="13" max="13" width="13.25" customWidth="1"/>
-    <col min="14" max="14" width="25.875" customWidth="1"/>
-    <col min="15" max="15" width="21.125" customWidth="1"/>
-    <col min="16" max="16" width="25.625" customWidth="1"/>
-    <col min="17" max="17" width="29.625" customWidth="1"/>
-    <col min="18" max="18" width="21.875" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="25.85546875" customWidth="1"/>
+    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" customWidth="1"/>
+    <col min="20" max="20" width="22.85546875" customWidth="1"/>
+    <col min="21" max="21" width="26.5703125" customWidth="1"/>
+    <col min="22" max="22" width="25.42578125" customWidth="1"/>
+    <col min="23" max="23" width="24.28515625" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="T1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="B2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="E2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="G2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="H2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="P2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="Q2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="R2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="S2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="28"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="G3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="W3" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L1501">
+      <formula1>list_province</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Sheet Data'!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>Y3:Y2500</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Sheet Data'!$E$2:$E$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>Z3:Z2500</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="20"/>
+    </row>
+    <row r="66" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/templates/excel/Certificate-Request-Infomation.xlsx
+++ b/src/main/resources/templates/excel/Certificate-Request-Infomation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CRM\webapp\public\invoiceform\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
   </bookViews>
   <sheets>
     <sheet name="Dữ liệu đầu vào CTS" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
+    <author>Admin</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0">
@@ -215,7 +216,9 @@
 - CTS Cá nhân
 Không dành cho:
 - CTS Doanh nghiệp
-Tình trạng: Bắt buộc</t>
+Tình trạng: Bắt buộc
+Bắt đầu bằng ký tự '
+</t>
         </r>
       </text>
     </comment>
@@ -300,7 +303,9 @@
           <t xml:space="preserve">
 Trường này dành cho:
 - Tất cả loại CTS
-Tình trạng: Không bắt buộc</t>
+Tình trạng: Không bắt buộc
+- Bắt đầu bằng ký tự '
+</t>
         </r>
       </text>
     </comment>
@@ -513,6 +518,162 @@
           </rPr>
           <t xml:space="preserve">
 Dữ liệu được hệ thống EasySign sinh ra sau khi import CTS thành công - Người dùng không nhập vào cột này</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thông tin bắt buộc</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thông tin bắt buộc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Thông tin bắt buộc
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Thông tin bắt buộc
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thông tin bắt buộc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thông tin bắt buộc</t>
         </r>
       </text>
     </comment>
@@ -926,7 +1087,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -998,6 +1159,26 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1133,7 +1314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1210,8 +1391,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1501,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1595,10 +1774,10 @@
       <c r="S1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="T1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="27" t="s">
         <v>19</v>
       </c>
       <c r="V1" s="8" t="s">
@@ -1678,8 +1857,8 @@
       <c r="S2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="30"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="28"/>
       <c r="V2" s="18" t="s">
         <v>41</v>
       </c>
@@ -1698,14 +1877,6 @@
       <c r="AA2" s="10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="G3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="W3" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/src/main/resources/templates/excel/Certificate-Request-Infomation.xlsx
+++ b/src/main/resources/templates/excel/Certificate-Request-Infomation.xlsx
@@ -2,13 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CRM\webapp\public\invoiceform\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14130"/>
   </bookViews>
   <sheets>
-    <sheet name="Dữ liệu đầu vào tạo CTS" sheetId="1" r:id="rId1"/>
+    <sheet name="Dữ liệu đầu vào CTS" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet Data" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="list_province">'Sheet Data'!$A$2:$A$64</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -22,6 +31,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
+    <author>Admin</author>
   </authors>
   <commentList>
     <comment ref="B1" authorId="0" shapeId="0">
@@ -206,7 +216,9 @@
 - CTS Cá nhân
 Không dành cho:
 - CTS Doanh nghiệp
-Tình trạng: Bắt buộc</t>
+Tình trạng: Bắt buộc
+Bắt đầu bằng ký tự '
+</t>
         </r>
       </text>
     </comment>
@@ -291,7 +303,9 @@
           <t xml:space="preserve">
 Trường này dành cho:
 - Tất cả loại CTS
-Tình trạng: Không bắt buộc</t>
+Tình trạng: Không bắt buộc
+- Bắt đầu bằng ký tự '
+</t>
         </r>
       </text>
     </comment>
@@ -481,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -504,6 +518,162 @@
           </rPr>
           <t xml:space="preserve">
 Dữ liệu được hệ thống EasySign sinh ra sau khi import CTS thành công - Người dùng không nhập vào cột này</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thông tin bắt buộc</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thông tin bắt buộc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Thông tin bắt buộc
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Thông tin bắt buộc
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thông tin bắt buộc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thông tin bắt buộc</t>
         </r>
       </text>
     </comment>
@@ -512,7 +682,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="129">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>MST (*)</t>
+  </si>
+  <si>
+    <t>Tên doanh nghiệp (*)</t>
+  </si>
+  <si>
+    <t>Tổ chức (*)</t>
+  </si>
   <si>
     <t>Đơn vị tổ chức</t>
   </si>
@@ -520,15 +702,69 @@
     <t>Chức vụ</t>
   </si>
   <si>
+    <t>CMND/HC (*)</t>
+  </si>
+  <si>
+    <t>Tên cá nhân (*)</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>SDT</t>
+    <t>SĐT</t>
   </si>
   <si>
     <t>Địa chỉ</t>
   </si>
   <si>
+    <t>Quốc gia (*)</t>
+  </si>
+  <si>
+    <t>Định danh khóa</t>
+  </si>
+  <si>
+    <t>CSR</t>
+  </si>
+  <si>
+    <t>CERT</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>CertID</t>
+  </si>
+  <si>
+    <t>Mật khẩu CTS</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Lỗi</t>
+  </si>
+  <si>
+    <t>Tên người liên hệ</t>
+  </si>
+  <si>
+    <t>Sđt người liên hệ</t>
+  </si>
+  <si>
+    <t>Email người liên hệ</t>
+  </si>
+  <si>
+    <t>Loại y/c</t>
+  </si>
+  <si>
+    <t>Loại nguồn</t>
+  </si>
+  <si>
+    <t>Email đại lý</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
     <t>Tax code</t>
   </si>
   <si>
@@ -565,68 +801,293 @@
     <t>Country</t>
   </si>
   <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
     <t>Alias</t>
   </si>
   <si>
-    <t>CSR</t>
-  </si>
-  <si>
-    <t>Định danh khóa</t>
-  </si>
-  <si>
-    <t>CERT</t>
-  </si>
-  <si>
-    <t>Serial</t>
-  </si>
-  <si>
-    <t>Mật khẩu CTS</t>
-  </si>
-  <si>
     <t>PIN</t>
   </si>
   <si>
-    <t>MST (*)</t>
-  </si>
-  <si>
-    <t>CMND/HC (*)</t>
-  </si>
-  <si>
-    <t>Tên doanh nghiệp (*)</t>
-  </si>
-  <si>
-    <t>Tổ chức (*)</t>
-  </si>
-  <si>
-    <t>Tỉnh/TP (*)</t>
-  </si>
-  <si>
-    <t>Tên cá nhân (*)</t>
-  </si>
-  <si>
-    <t>Quốc gia (*)</t>
-  </si>
-  <si>
-    <t>Trạng thái</t>
-  </si>
-  <si>
-    <t>Lỗi</t>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>contact phone</t>
+  </si>
+  <si>
+    <t>contact email</t>
+  </si>
+  <si>
+    <t>Type request</t>
+  </si>
+  <si>
+    <t>Vendor type</t>
+  </si>
+  <si>
+    <t>Vendor Email</t>
+  </si>
+  <si>
+    <t>Tên địa phương</t>
+  </si>
+  <si>
+    <t>Thành Phố Hà Nội</t>
+  </si>
+  <si>
+    <t>Tỉnh Hà Giang</t>
+  </si>
+  <si>
+    <t>Tỉnh Cao Bằng</t>
+  </si>
+  <si>
+    <t>Tỉnh Bắc Kạn</t>
+  </si>
+  <si>
+    <t>Tỉnh Tuyên Quang</t>
+  </si>
+  <si>
+    <t>Tỉnh Lào Cai</t>
+  </si>
+  <si>
+    <t>Tỉnh Điện Biên</t>
+  </si>
+  <si>
+    <t>Tỉnh Lai Châu</t>
+  </si>
+  <si>
+    <t>Tỉnh Sơn La</t>
+  </si>
+  <si>
+    <t>Tỉnh Yên Bái</t>
+  </si>
+  <si>
+    <t>Tỉnh Hòa Bình</t>
+  </si>
+  <si>
+    <t>Tỉnh Thái Nguyên</t>
+  </si>
+  <si>
+    <t>Tỉnh Lạng Sơn</t>
+  </si>
+  <si>
+    <t>Tỉnh Quảng Ninh</t>
+  </si>
+  <si>
+    <t>Tỉnh Bắc Giang</t>
+  </si>
+  <si>
+    <t>Tỉnh Phú Thọ</t>
+  </si>
+  <si>
+    <t>Tỉnh Vĩnh Phúc</t>
+  </si>
+  <si>
+    <t>Tỉnh Bắc Ninh</t>
+  </si>
+  <si>
+    <t>Tỉnh Hải Dương</t>
+  </si>
+  <si>
+    <t>Thành Phố Hải Phòng</t>
+  </si>
+  <si>
+    <t>Tỉnh Hưng Yên</t>
+  </si>
+  <si>
+    <t>Tỉnh Thái Bình</t>
+  </si>
+  <si>
+    <t>Tỉnh Hà Nam</t>
+  </si>
+  <si>
+    <t>Tỉnh Nam Định</t>
+  </si>
+  <si>
+    <t>Tỉnh Ninh Bình</t>
+  </si>
+  <si>
+    <t>Tỉnh Thanh Hóa</t>
+  </si>
+  <si>
+    <t>Tỉnh Nghệ An</t>
+  </si>
+  <si>
+    <t>Tỉnh Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>Tỉnh Quảng Bình</t>
+  </si>
+  <si>
+    <t>Tỉnh Quảng Trị</t>
+  </si>
+  <si>
+    <t>Tỉnh Thừa Thiên Huế</t>
+  </si>
+  <si>
+    <t>Thành Phố Đà Nẵng</t>
+  </si>
+  <si>
+    <t>Tỉnh Quảng Nam</t>
+  </si>
+  <si>
+    <t>Tỉnh Quảng Ngãi</t>
+  </si>
+  <si>
+    <t>Tỉnh Bình Định</t>
+  </si>
+  <si>
+    <t>Tỉnh Phú Yên</t>
+  </si>
+  <si>
+    <t>Tỉnh Khánh Hòa</t>
+  </si>
+  <si>
+    <t>Tỉnh Ninh Thuận</t>
+  </si>
+  <si>
+    <t>Tỉnh Bình Thuận</t>
+  </si>
+  <si>
+    <t>Tỉnh Kon Tum</t>
+  </si>
+  <si>
+    <t>Tỉnh Gia Lai</t>
+  </si>
+  <si>
+    <t>Tỉnh Đăk Lăk</t>
+  </si>
+  <si>
+    <t>Tỉnh Đăk Nông</t>
+  </si>
+  <si>
+    <t>Tỉnh Lâm Đồng</t>
+  </si>
+  <si>
+    <t>Tỉnh Bình Phước</t>
+  </si>
+  <si>
+    <t>Tỉnh Tây Ninh</t>
+  </si>
+  <si>
+    <t>Tỉnh Bình Dương</t>
+  </si>
+  <si>
+    <t>Tỉnh Đồng Nai</t>
+  </si>
+  <si>
+    <t>Tỉnh Bà Rịa - Vũng Tàu</t>
+  </si>
+  <si>
+    <t>Tp. Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>Tỉnh Long An</t>
+  </si>
+  <si>
+    <t>Tỉnh Tiền Giang</t>
+  </si>
+  <si>
+    <t>Tỉnh Bến Tre</t>
+  </si>
+  <si>
+    <t>Tỉnh Trà Vinh</t>
+  </si>
+  <si>
+    <t>Tỉnh Vĩnh Long</t>
+  </si>
+  <si>
+    <t>Tỉnh Đồng Tháp</t>
+  </si>
+  <si>
+    <t>Tỉnh An Giang</t>
+  </si>
+  <si>
+    <t>Tỉnh Kiên Giang</t>
+  </si>
+  <si>
+    <t>Thành Phố Cần Thơ</t>
+  </si>
+  <si>
+    <t>Tỉnh Hậu Giang</t>
+  </si>
+  <si>
+    <t>Tỉnh Sóc Trăng</t>
+  </si>
+  <si>
+    <t>Tỉnh Bạc Liêu</t>
+  </si>
+  <si>
+    <t>Tỉnh Cà Mau</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tỉnh/TP </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <t>Loại chứng thư</t>
+  </si>
+  <si>
+    <t>Tạo mới</t>
+  </si>
+  <si>
+    <t>Gia hạn</t>
+  </si>
+  <si>
+    <t>Mua thêm</t>
+  </si>
+  <si>
+    <t>Loại nguồn đại lý</t>
+  </si>
+  <si>
+    <t>Chủ động</t>
+  </si>
+  <si>
+    <t>Đại lý - CTV Đơn vị - CTV Cá nhân</t>
+  </si>
+  <si>
+    <t>Data thuế gửi</t>
+  </si>
+  <si>
+    <t>Nhân viên thuế</t>
+  </si>
+  <si>
+    <t>Data từ hội thảo thuế</t>
+  </si>
+  <si>
+    <t>Marketing Zalo</t>
+  </si>
+  <si>
+    <t>Marketing điện thoại</t>
+  </si>
+  <si>
+    <t>Marketing Email</t>
+  </si>
+  <si>
+    <t>Marketing Facebook</t>
+  </si>
+  <si>
+    <t>Marketing chat</t>
+  </si>
+  <si>
+    <t>Trưởng nhóm</t>
+  </si>
+  <si>
+    <t>Hóa đơn Mobile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0000000000"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,17 +1099,25 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="163"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -663,22 +1132,73 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="163"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -689,12 +1209,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,18 +1226,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -746,16 +1284,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -765,50 +1325,83 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1087,167 +1680,634 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="25.85546875" customWidth="1"/>
+    <col min="15" max="15" width="30.85546875" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" customWidth="1"/>
+    <col min="20" max="20" width="22.85546875" customWidth="1"/>
+    <col min="21" max="21" width="26.5703125" customWidth="1"/>
+    <col min="22" max="22" width="25.42578125" customWidth="1"/>
+    <col min="23" max="23" width="24.28515625" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" customWidth="1"/>
+    <col min="26" max="26" width="15.7109375" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="26"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L1501">
+      <formula1>list_province</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Sheet Data'!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>Y3:Y2500</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'Sheet Data'!$E$2:$E$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>Z3:Z2500</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E66"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="25" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="70.28515625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="22" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="5" max="5" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="5" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I3" s="16"/>
-      <c r="J3" s="18"/>
-      <c r="O3" s="17"/>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="20"/>
+    </row>
+    <row r="66" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/templates/excel/Certificate-Request-Infomation.xlsx
+++ b/src/main/resources/templates/excel/Certificate-Request-Infomation.xlsx
@@ -30,11 +30,35 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
+    <author>Admin</author>
     <author>Author</author>
-    <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+- </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Bắt buộc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -189,7 +213,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -253,90 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="163"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Trường này dành cho:
-- Tất cả loại CTS
-Tình trạng: Không bắt buộc</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="163"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Trường này dành cho:
-- Tất cả loại CTS
-Tình trạng: Không bắt buộc
-- Bắt đầu bằng ký tự '
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="163"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Trường này dành cho:
-- Tất cả loại CTS
-Tình trạng: Không bắt buộc</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -363,7 +304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -382,7 +323,35 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="163"/>
+          </rPr>
+          <t xml:space="preserve">
+Trường này dành cho:
+- Tất cả loại CTS
+Tình trạng: Bắt buộc
+- Bắt đầu bằng ký tự '
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Trường này dành cho:
@@ -391,7 +360,62 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Trường này dành cho:
+- Tất cả loại CTS
+Tình trạng: Bắt buộc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t xml:space="preserve">
+Trường này dành cho:
+- Tất cả loại CTS
+Tình trạng: Bắt buộc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -417,7 +441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -443,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -469,7 +493,35 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="163"/>
+          </rPr>
+          <t xml:space="preserve">
+- Dữ liệu được hệ thống EasySign sinh ra sau khi import CTS thành công - Người dùng không nhập vào cột này
+- Trường hợp gia hạn: bắt buộc nhập
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -495,7 +547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -504,24 +556,32 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <charset val="163"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="163"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Thông tin bắt buộc</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Dữ liệu được hệ thống EasySign sinh ra sau khi import CTS thành công - Người dùng không nhập vào cột này</t>
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="1" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -529,7 +589,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Author:
 </t>
@@ -543,19 +603,9 @@
           </rPr>
           <t>Thông tin bắt buộc</t>
         </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="1" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -575,11 +625,12 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Thông tin bắt buộc</t>
+          <t xml:space="preserve">Thông tin bắt buộc
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="1" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -604,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="1" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -624,12 +675,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Thông tin bắt buộc
-</t>
+          <t>Thông tin bắt buộc</t>
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="1" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -653,7 +703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="1" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -661,7 +711,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Author:
 </t>
@@ -673,7 +723,80 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Thông tin bắt buộc</t>
+          <t>Dữ liệu được hệ thống EasySign sinh ra sau khi import CTS thành công - Người dùng không nhập vào cột này</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dữ liệu được hệ thống EasySign sinh ra sau khi import CTS thành công - Người dùng không nhập vào cột này</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Dữ liệu được hệ thống EasySign sinh ra sau khi import CTS thành công - Người dùng không nhập vào cột này
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Author:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dữ liệu được hệ thống EasySign sinh ra sau khi import CTS thành công - Người dùng không nhập vào cột này</t>
         </r>
       </text>
     </comment>
@@ -682,44 +805,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="138">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>MST (*)</t>
-  </si>
-  <si>
-    <t>Tên doanh nghiệp (*)</t>
-  </si>
-  <si>
-    <t>Tổ chức (*)</t>
-  </si>
-  <si>
     <t>Đơn vị tổ chức</t>
   </si>
   <si>
     <t>Chức vụ</t>
   </si>
   <si>
-    <t>CMND/HC (*)</t>
-  </si>
-  <si>
-    <t>Tên cá nhân (*)</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>SĐT</t>
-  </si>
-  <si>
-    <t>Địa chỉ</t>
-  </si>
-  <si>
-    <t>Quốc gia (*)</t>
-  </si>
-  <si>
     <t>Định danh khóa</t>
   </si>
   <si>
@@ -742,24 +838,6 @@
   </si>
   <si>
     <t>Lỗi</t>
-  </si>
-  <si>
-    <t>Tên người liên hệ</t>
-  </si>
-  <si>
-    <t>Sđt người liên hệ</t>
-  </si>
-  <si>
-    <t>Email người liên hệ</t>
-  </si>
-  <si>
-    <t>Loại y/c</t>
-  </si>
-  <si>
-    <t>Loại nguồn</t>
-  </si>
-  <si>
-    <t>Email đại lý</t>
   </si>
   <si>
     <t>No.</t>
@@ -1081,6 +1159,258 @@
   </si>
   <si>
     <t>Hóa đơn Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Địa chỉ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SĐT </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tên cá nhân </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CMND/HC </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tổ chức</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tên doanh nghiệp</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MST </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Quốc gia </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Tên người liên hệ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sđt người liên hệ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Email người liên hệ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Loại y/c</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <t>Cert Subject</t>
+  </si>
+  <si>
+    <t>Ngày hoạt động</t>
+  </si>
+  <si>
+    <r>
+      <t>Loại nguồn</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Email đại lý</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <t>Operated Date</t>
+  </si>
+  <si>
+    <t>Ngày hết hạn</t>
+  </si>
+  <si>
+    <t>Expiration Date</t>
+  </si>
+  <si>
+    <t>Token Serial</t>
+  </si>
+  <si>
+    <t>Crm Data</t>
+  </si>
+  <si>
+    <t>Kết quả CRM</t>
   </si>
 </sst>
 </file>
@@ -1161,10 +1491,19 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1172,13 +1511,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1314,7 +1646,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1334,9 +1666,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1390,6 +1719,27 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1680,10 +2030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z20" activeCellId="1" sqref="AF1:AF2 Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1704,186 +2054,224 @@
     <col min="15" max="15" width="30.85546875" customWidth="1"/>
     <col min="16" max="16" width="20.85546875" customWidth="1"/>
     <col min="17" max="17" width="20.140625" customWidth="1"/>
-    <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" customWidth="1"/>
-    <col min="20" max="20" width="22.85546875" customWidth="1"/>
-    <col min="21" max="21" width="26.5703125" customWidth="1"/>
-    <col min="22" max="22" width="25.42578125" customWidth="1"/>
-    <col min="23" max="23" width="24.28515625" customWidth="1"/>
-    <col min="24" max="24" width="19.85546875" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" customWidth="1"/>
-    <col min="26" max="26" width="15.7109375" customWidth="1"/>
-    <col min="27" max="27" width="19.85546875" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" customWidth="1"/>
+    <col min="19" max="19" width="22.85546875" customWidth="1"/>
+    <col min="20" max="20" width="26.5703125" customWidth="1"/>
+    <col min="21" max="21" width="25.42578125" customWidth="1"/>
+    <col min="22" max="23" width="24.28515625" customWidth="1"/>
+    <col min="24" max="24" width="16.140625" customWidth="1"/>
+    <col min="25" max="25" width="30.42578125" customWidth="1"/>
+    <col min="26" max="26" width="19.85546875" customWidth="1"/>
+    <col min="27" max="28" width="17" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" customWidth="1"/>
+    <col min="30" max="30" width="15.5703125" customWidth="1"/>
+    <col min="31" max="31" width="16.42578125" customWidth="1"/>
+    <col min="32" max="32" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="27" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="O1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="P1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="Q1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="R1" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="S1" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="AB1" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC1" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD1" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE1" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF1" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" s="28" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="B2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="C2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="D2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="E2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="F2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="G2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="H2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="I2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="J2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="K2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="L2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="M2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="N2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="O2" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="16" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="S2" s="32"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="V2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="W2" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="X2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="Y2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="Z2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>46</v>
+      <c r="AA2" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC2" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD2" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="AE2" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF2" s="30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L1501">
       <formula1>list_province</formula1>
     </dataValidation>
@@ -1893,18 +2281,18 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Sheet Data'!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>Y3:Y2500</xm:sqref>
+          <xm:sqref>X3:X2500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Sheet Data'!$E$2:$E$14</xm:f>
           </x14:formula1>
-          <xm:sqref>Z3:Z2500</xm:sqref>
+          <xm:sqref>Y3:Y2500</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1928,384 +2316,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+    </row>
+    <row r="17" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+    </row>
+    <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+    </row>
+    <row r="19" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+    </row>
+    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+    </row>
+    <row r="21" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+    </row>
+    <row r="22" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+    </row>
+    <row r="23" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+    </row>
+    <row r="24" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="21" t="s">
+    </row>
+    <row r="25" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="21" t="s">
+    </row>
+    <row r="26" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
+    </row>
+    <row r="27" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+    </row>
+    <row r="28" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="21" t="s">
+    </row>
+    <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+    </row>
+    <row r="30" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+    <row r="31" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="21" t="s">
+    <row r="32" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+    <row r="33" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+    <row r="34" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+    <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+    <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
+    <row r="37" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+    <row r="38" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="21" t="s">
+    <row r="39" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+    <row r="40" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
+    <row r="41" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A41" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="21" t="s">
+    <row r="42" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="21" t="s">
+    <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="21" t="s">
+    <row r="44" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="21" t="s">
+    <row r="45" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="21" t="s">
+    <row r="46" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="21" t="s">
+    <row r="47" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="21" t="s">
+    <row r="48" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="20" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A34" s="21" t="s">
+    <row r="49" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="21" t="s">
+    <row r="50" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="20" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="21" t="s">
+    <row r="51" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="20" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="21" t="s">
+    <row r="52" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="20" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="21" t="s">
+    <row r="53" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="20" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="21" t="s">
+    <row r="54" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="21" t="s">
+    <row r="55" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="21" t="s">
+    <row r="56" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="21" t="s">
+    <row r="57" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="20" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="21" t="s">
+    <row r="58" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="20" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="21" t="s">
+    <row r="59" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="21" t="s">
+    <row r="60" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="20" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="21" t="s">
+    <row r="61" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="21" t="s">
+    <row r="62" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="21" t="s">
+    <row r="63" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="21" t="s">
+    <row r="64" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="21" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="21" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="21" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="21" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="21" t="s">
-        <v>110</v>
-      </c>
-    </row>
     <row r="65" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="20"/>
+      <c r="A65" s="19"/>
     </row>
     <row r="66" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="20"/>
+      <c r="A66" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
